--- a/medicine/Enfance/Marie_et_Joseph/Marie_et_Joseph.xlsx
+++ b/medicine/Enfance/Marie_et_Joseph/Marie_et_Joseph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie et Joseph est un duo d'auteurs de plusieurs ouvrages de littérature de jeunesse et de nombreux romans policiers, composé de Corinne Bouchard (née le 4 novembre 1958 à Grenoble) et Pierre Mezinski (né le 1er juillet 1950 à Neuilly-en-Dun dans le Cher).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégée de lettres modernes, Corinne Bouchard enseigne à partir de 1982 dans des lycées du Nord et du Centre de la France.
 Détenteur d'un maîtrise en lettres classiques, Pierre Mezinski préfère suivre sa passion pour le blues et devient musicien professionnel, notamment dans la formation « Biscuit Roller ». Après quelques années difficiles, il abandonne la musique pour se consacrer un temps à l'enseignement auprès de jeunes en réinsertion sociale.
@@ -547,28 +561,146 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans de littérature d'enfance et de jeunesse
-Série Aladdin
-Aladdin, Héloïse et Navigio forment un trio de détectives en herbe.
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Aladdin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aladdin, Héloïse et Navigio forment un trio de détectives en herbe.
 Aladdin et le Crime de la bibliothèque, Paris, Syros, coll. « Souris noire » no 11, 1997
 Aladdin et la Gare de Norvège, Paris, Syros, coll. « Souris noire » no 30, 1999
 Aladdin et la Course au caillou, Paris, Syros, coll. « Souris noire » no 36, 1999
 La Dernière Course d’Atalante, Paris, Syros, coll. « Souris noire » no 55, 2001
-Aladdin et le Mister Mystère, Paris, Syros, coll. « Souris noire » no 65, 2002
-Série Cornin Bouchon
-Le Crime de Cornin Bouchon, Paris, Syros, coll. « Souris noire » no 2, 1986 ; réédition, Paris, Syros, coll. « Mini Souris noire » no 10, 1997
+Aladdin et le Mister Mystère, Paris, Syros, coll. « Souris noire » no 65, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Cornin Bouchon</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Crime de Cornin Bouchon, Paris, Syros, coll. « Souris noire » no 2, 1986 ; réédition, Paris, Syros, coll. « Mini Souris noire » no 10, 1997
 Le Nouveau Crime de Cornin Bouchon, Paris, Syros, coll. « Souris noire » no 45, 1991 ; réédition,  Paris, Syros, coll. « Mini Souris noire » no 32, 1998
-Le Mariage de Cornin Bouchon Paris, Syros, coll. « Les Mini Syros » no 50, 1999
-Autres romans
-Le Refuge des Ptits-tout-seuls, Paris, Syros, coll. « Souris noire » no 26, 1988
+Le Mariage de Cornin Bouchon Paris, Syros, coll. « Les Mini Syros » no 50, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Refuge des Ptits-tout-seuls, Paris, Syros, coll. « Souris noire » no 26, 1988
 Le Jardin des gâteaux, Paris, Nathan, 1990
 Une aventure de Rosita Cochon, Paris, Syros, coll. « Souris noire » no 52, 1992
 Pas de rose pour la blonde, Paris, Hachette, coll. « Histoires masquées », 1997
 L'Amour fantôme, Paris, Magnard, 1998
 Emballez la baleine !, Paris, Magnard, coll. « Les policiers », 1998
-Pas de bagne pour Foufouille, Paris, Syros, coll. « Mini Souris noire mini » no 76, 2002
-Romans policiers
-Chaudes Bises, Paris, Gallimard, coll. « Série noire » no 1917, 1983
+Pas de bagne pour Foufouille, Paris, Syros, coll. « Mini Souris noire mini » no 76, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chaudes Bises, Paris, Gallimard, coll. « Série noire » no 1917, 1983
 Si tu as peur, jappe, Paris, Gallimard, coll. « Série noire » no 1980, 1984
 La Grande Arpente des champs d'en bas, Paris, Gallimard, coll. « Série noire » no 2025, 1985
 Square du Congo, Paris, Gallimard, coll. « Série noire » no 2079, 1986
@@ -578,37 +710,73 @@
 Mississippi Delta Blues, Paris, Calmann-Lévy, coll. « SOS racisme », 1988
 La Mine d'or de Taphalescha, Paris, Gallimard, coll. « Série noire » no 2178, 1989
 Le Piège au jardinet, Paris, Gallimard, coll. « Série noire » no 2235, 1990
-Venez voir les cadavres, mesdames, Paris, Gallimard, coll. « Série noire » no 2276, 1991
-Autre publication
-Sur la piste des bidoules, Paris, Calmann-Lévy, coll. « Les Cahiers sauvages », 1989</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Venez voir les cadavres, mesdames, Paris, Gallimard, coll. « Série noire » no 2276, 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Marie_et_Joseph</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie_et_Joseph</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sur la piste des bidoules, Paris, Calmann-Lévy, coll. « Les Cahiers sauvages », 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_et_Joseph</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Mesplède, Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 299-300.
 Jean Tulard, Dictionnaire du roman policier : 1841-2005. Auteurs, personnages, œuvres, thèmes, collections, éditeurs, Paris, Fayard, 2005, 768 p. (ISBN 978-2-915793-51-2, OCLC 62533410), p. 475.
